--- a/document/Fix_QuickPen.xlsx
+++ b/document/Fix_QuickPen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\chatgpt\EasyEssay\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2071A64A-F678-4733-A168-DECBF68EF16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFDAE90-B031-410E-9986-7E9BAC11C6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="22104" windowHeight="11136" xr2:uid="{FF719F7D-A8E5-4DDC-8849-208BC4D55628}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Description</t>
   </si>
@@ -83,9 +83,6 @@
     <t>I will check and fix it.</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Possible.</t>
   </si>
   <si>
@@ -106,14 +103,22 @@
 </t>
   </si>
   <si>
-    <t>I will solve this problem as DevOps position.</t>
+    <t>You should buy a certificate for SSL
+https://www.godaddy.com/web-security/ssl-certificate</t>
+  </si>
+  <si>
+    <t>I will solve this problem as DevOps position.
+I used for this AWS Cloud Formation and EC2 Load Balencer.</t>
+  </si>
+  <si>
+    <t>Possibility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +128,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Mincho"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Yu Mincho"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +152,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,11 +182,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,33 +207,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1EF258-645D-4862-954B-E34893E9E8A2}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +578,7 @@
     <col min="5" max="5" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -543,17 +586,17 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -565,172 +608,177 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="E4" s="13"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="108" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="54" x14ac:dyDescent="0.45">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.45">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.45">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:D4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/document/Fix_QuickPen.xlsx
+++ b/document/Fix_QuickPen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\chatgpt\EasyEssay\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFDAE90-B031-410E-9986-7E9BAC11C6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A1CA37-4050-4F64-B7DD-1DAC80AC2BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="22104" windowHeight="11136" xr2:uid="{FF719F7D-A8E5-4DDC-8849-208BC4D55628}"/>
+    <workbookView xWindow="768" yWindow="96" windowWidth="22104" windowHeight="11808" xr2:uid="{FF719F7D-A8E5-4DDC-8849-208BC4D55628}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1(02-09)" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Description</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Possibility</t>
+  </si>
+  <si>
+    <t>I will fix it. Citation will be added in the future.</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +158,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,22 +248,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1EF258-645D-4862-954B-E34893E9E8A2}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,35 +656,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11">
+    <row r="4" spans="1:6" ht="67.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="108" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
@@ -670,7 +698,7 @@
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="6"/>
@@ -679,54 +707,56 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="54" x14ac:dyDescent="0.45">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.45">
-      <c r="A8" s="11">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -737,38 +767,42 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.45">
-      <c r="A11" s="11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="36" x14ac:dyDescent="0.45">
-      <c r="A12" s="11">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
